--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,6 +474,10 @@
   </si>
   <si>
     <t>Extension.extension:flightDuration.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
   </si>
   <si>
     <t>Extension.extension:satInSeat</t>
@@ -3815,7 +3819,7 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>116</v>
@@ -3892,13 +3896,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>74</v>
@@ -3923,7 +3927,7 @@
         <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>100</v>
@@ -3997,7 +4001,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>102</v>
@@ -4100,7 +4104,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>104</v>
@@ -4203,7 +4207,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>106</v>
@@ -4246,7 +4250,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -4308,7 +4312,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4334,7 +4338,7 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>116</v>
@@ -4411,13 +4415,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>74</v>
@@ -4442,7 +4446,7 @@
         <v>89</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>100</v>
@@ -4516,7 +4520,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>102</v>
@@ -4619,7 +4623,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>104</v>
@@ -4722,7 +4726,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
@@ -4765,7 +4769,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -4827,7 +4831,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>114</v>
@@ -5061,7 +5065,7 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>116</v>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-flight-details.xlsx
+++ b/StructureDefinition-flight-details.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
